--- a/eeg_memo_custom_2excel.xlsx
+++ b/eeg_memo_custom_2excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\도소라\keri_zip_parser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31004E2F-95EE-47D4-A3E6-E11BC37DC0C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF15D4FA-094D-4E93-9AE4-A5875C08EDC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="15">
   <si>
     <t>증례번호</t>
   </si>
@@ -43,10 +43,16 @@
     <t>X</t>
   </si>
   <si>
-    <t>HN</t>
+    <t>HY but CR</t>
+  </si>
+  <si>
+    <t>그림 3&amp;4 SV/이야기 SV/절차 SV/대화 HY but CR</t>
   </si>
   <si>
     <t>HY but CR/절차 HN</t>
+  </si>
+  <si>
+    <t>HN</t>
   </si>
   <si>
     <t>HY but SV</t>
@@ -58,58 +64,7 @@
     <t>대화 15부터 NV</t>
   </si>
   <si>
-    <t>HY but CR</t>
-  </si>
-  <si>
     <t>HY but CL</t>
-  </si>
-  <si>
-    <t>HN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>헤드셋 무</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HY but CR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HY but SV</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>헤드셋 착용했지만 오른쪽 채널에 문제 생김</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>헤드셋 착용했지만 동일한 값</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NV</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>뇌파값이 없음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>채널R 이상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>채널L 이상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -481,19 +436,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L75"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="11" max="11" width="9.9140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,7 +465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>10240</v>
       </c>
@@ -521,7 +476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>10338</v>
       </c>
@@ -531,8 +486,11 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>10339</v>
       </c>
@@ -543,7 +501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>10340</v>
       </c>
@@ -554,7 +512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>20032</v>
       </c>
@@ -564,8 +522,11 @@
       <c r="D6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>20033</v>
       </c>
@@ -576,10 +537,10 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>20034</v>
       </c>
@@ -590,10 +551,10 @@
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>20035</v>
       </c>
@@ -603,14 +564,8 @@
       <c r="D9" t="s">
         <v>5</v>
       </c>
-      <c r="K9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>60117</v>
       </c>
@@ -621,16 +576,10 @@
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>60118</v>
       </c>
@@ -641,16 +590,10 @@
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>60119</v>
       </c>
@@ -661,16 +604,10 @@
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>60120</v>
       </c>
@@ -681,16 +618,10 @@
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>60121</v>
       </c>
@@ -701,16 +632,10 @@
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>60122</v>
       </c>
@@ -721,10 +646,10 @@
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>60123</v>
       </c>
@@ -735,7 +660,7 @@
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -749,7 +674,7 @@
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
@@ -763,7 +688,7 @@
         <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
@@ -777,7 +702,7 @@
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
@@ -813,7 +738,7 @@
         <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
@@ -827,7 +752,7 @@
         <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
@@ -852,7 +777,7 @@
         <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
@@ -866,7 +791,7 @@
         <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
@@ -902,7 +827,7 @@
         <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
@@ -916,7 +841,7 @@
         <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
@@ -930,7 +855,7 @@
         <v>6</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
@@ -938,7 +863,7 @@
         <v>60141</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
@@ -947,7 +872,7 @@
         <v>6</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
@@ -955,7 +880,7 @@
         <v>60142</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
@@ -964,7 +889,7 @@
         <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
@@ -972,7 +897,7 @@
         <v>60143</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
@@ -981,7 +906,7 @@
         <v>6</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
@@ -989,7 +914,7 @@
         <v>60144</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
@@ -998,7 +923,7 @@
         <v>6</v>
       </c>
       <c r="E35" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
@@ -1006,7 +931,7 @@
         <v>60145</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1020,7 +945,7 @@
         <v>60146</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1034,7 +959,7 @@
         <v>60147</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1048,7 +973,7 @@
         <v>60148</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1062,7 +987,7 @@
         <v>60149</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1076,7 +1001,7 @@
         <v>60150</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1089,6 +1014,9 @@
       <c r="A42">
         <v>60151</v>
       </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
       <c r="C42" t="s">
         <v>5</v>
       </c>
@@ -1100,6 +1028,9 @@
       <c r="A43">
         <v>60152</v>
       </c>
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
       <c r="C43" t="s">
         <v>5</v>
       </c>
@@ -1112,7 +1043,7 @@
         <v>60153</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1126,7 +1057,7 @@
         <v>60154</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1140,7 +1071,7 @@
         <v>60155</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1154,7 +1085,7 @@
         <v>60156</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1163,7 +1094,7 @@
         <v>5</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.45">
@@ -1171,7 +1102,7 @@
         <v>60157</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1185,7 +1116,7 @@
         <v>60158</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -1199,7 +1130,7 @@
         <v>60159</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C50" t="s">
         <v>6</v>
@@ -1208,13 +1139,16 @@
         <v>6</v>
       </c>
       <c r="E50" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>60160</v>
       </c>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
       <c r="C51" t="s">
         <v>6</v>
       </c>
@@ -1222,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="E51" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
@@ -1230,7 +1164,7 @@
         <v>60161</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C52" t="s">
         <v>6</v>
@@ -1239,13 +1173,16 @@
         <v>6</v>
       </c>
       <c r="E52" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>60162</v>
       </c>
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
       <c r="C53" t="s">
         <v>6</v>
       </c>
@@ -1253,7 +1190,7 @@
         <v>6</v>
       </c>
       <c r="E53" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
@@ -1261,7 +1198,7 @@
         <v>60163</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -1275,7 +1212,7 @@
         <v>60164</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C55" t="s">
         <v>6</v>
@@ -1284,7 +1221,7 @@
         <v>6</v>
       </c>
       <c r="E55" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.45">
@@ -1375,7 +1312,7 @@
         <v>6</v>
       </c>
       <c r="E63" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.45">
@@ -1389,7 +1326,7 @@
         <v>5</v>
       </c>
       <c r="E64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.45">
@@ -1403,7 +1340,7 @@
         <v>5</v>
       </c>
       <c r="E65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.45">
@@ -1417,7 +1354,7 @@
         <v>5</v>
       </c>
       <c r="E66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.45">
@@ -1431,7 +1368,7 @@
         <v>5</v>
       </c>
       <c r="E67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.45">
@@ -1511,7 +1448,7 @@
         <v>6</v>
       </c>
       <c r="E74" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.45">
